--- a/biology/Botanique/Monocostus/Monocostus.xlsx
+++ b/biology/Botanique/Monocostus/Monocostus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monocostus est un genre monotypique de plantes à fleurs appartenant à la famille des Costaceae. 
-Son unique espèce (World Checklist of Selected Plant Families (WCSP)  (18 février 2012)[1]) Monocostus uniflorus (Poepp. ex Petersen) Maas (1968) est originaire du Nord du Pérou.
+Son unique espèce (World Checklist of Selected Plant Families (WCSP)  (18 février 2012)) Monocostus uniflorus (Poepp. ex Petersen) Maas (1968) est originaire du Nord du Pérou.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Monocostus uniflorus (Poepp. ex Petersen) Maas, Rev.
 			Monocostus uniflorus.
